--- a/biology/Médecine/Ilium_(anatomie)/Ilium_(anatomie).xlsx
+++ b/biology/Médecine/Ilium_(anatomie)/Ilium_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ilium (ou ilion) est la partie supérieure de l'os coxal. Il est constitué d'un corps et d'une aile.
 </t>
@@ -513,18 +525,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corps de l'ilium
-Le corps de l'ilium forme moins des deux-cinquièmes supérieur de l'acétabulum.
+          <t>Corps de l'ilium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps de l'ilium forme moins des deux-cinquièmes supérieur de l'acétabulum.
 Latéralement, à la limite avec l'aile iliaque, il est marqué par le sillon supra-acétabulaire (ou gouttière sus-cotyloïdienne). Ce sillon correspond au passage du tendon réfléchi du muscle droit fémoral qui se fixe dans la partie postérieure du sillon.
 Sur sa face sacro-pelvienne, le corps est séparée de l'aile par la ligne arquée.
 La ligne arquée fait partie de la ligne terminale qui forme la limite entre le petit bassin et le grand bassin.
 Au-dessous et en arrière de la ligne arquée, se trouve la surface articulaire coxale de l'articulation sacro-iliaque : la surface auriculaire de l'ilion et la tubérosité iliaque.
-Aile de l'ilium
-L'aile de l'ilium est la partie supérieure large et aplatie de l'ilium. L'ensemble des deux ailes forme le grand bassin osseux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aile de l'ilium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aile de l'ilium est la partie supérieure large et aplatie de l'ilium. L'ensemble des deux ailes forme le grand bassin osseux. 
 Elle présente une face externe constituant la surface glutéale de l'ilium, et une surface interne constituant la fosse iliaque interne faisant partie de la face sacro-pelvienne de l'ilion.
 Les deux faces se rejoignent en haut au niveau de la crête iliaque.
-Surface glutéale de l'ilium
-La surface glutéale de l'ilium (ou fosse iliaque externe ou face glutéale de l'ilion) est la face externe de l'ilium. Elle de forme triangulaire et ondulée : convexe en avant et en arrière et concave dans sa partie moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aile de l'ilium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Surface glutéale de l'ilium</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface glutéale de l'ilium (ou fosse iliaque externe ou face glutéale de l'ilion) est la face externe de l'ilium. Elle de forme triangulaire et ondulée : convexe en avant et en arrière et concave dans sa partie moyenne.
 Elle est marquée par les lignes glutéales antérieure, postérieure et inférieure.
 Ligne glutéale antérieure
 La ligne glutéale antérieure (ou ligne demi-circulaire antérieure ou ligne semi-circulaire antérieure) est la plus longue des trois lignes glutéales. 
@@ -537,12 +628,90 @@
 Ligne glutéale inférieure
 La ligne glutéale inférieure (ou ligne fessière ou ligne semi-circulaire inférieure ou ligne spino-cotyloïdienne ou crête supra-tegminale) correspond à la lèvre supérieure du sillon supra-acétabulaire.
 Elle limite en bas l'insertion du muscle petit glutéal.
-Fosse iliaque interne
-La fosse iliaque interne est la partie de la surface sacro-pelvienne située au-dessus de la ligne arquée. Elle est limitée en haut par la crête iliaque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aile de l'ilium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fosse iliaque interne</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fosse iliaque interne est la partie de la surface sacro-pelvienne située au-dessus de la ligne arquée. Elle est limitée en haut par la crête iliaque.
 Elle est concave est donne insertion dans ses deux-tiers supérieurs au muscle iliaque.
 Elle constitue la limite osseuse latérale du grand bassin.
-Crête iliaque
-La crête iliaque est le bord supérieur de l'aile de l'ilium. Elle a une  forme de S et convexe en haut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aile de l'ilium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Crête iliaque</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crête iliaque est le bord supérieur de l'aile de l'ilium. Elle a une  forme de S et convexe en haut.
 Elle s'étend de l'épine iliaque antérieure et supérieure à l'épine iliaque postérieure et supérieure.
 Dans sa partie moyenne, elle est épaissie par le tubercule iliaque qui donne insertion au muscle moyen glutéal.
 Elle est limitée par deux lèvres une externe et une interne. 
@@ -553,66 +722,74 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ilium_(anatomie)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête iliaque est palpable sous la peau.
-C'est le seul os du corps où on a détecté une pathologie très particulière : le pneumatokyste, il s'agit de la formation d'une cavité à l'intérieur de l'os, pouvant atteindre plusieurs centimètres et contenant de l'azote[1].
+C'est le seul os du corps où on a détecté une pathologie très particulière : le pneumatokyste, il s'agit de la formation d'une cavité à l'intérieur de l'os, pouvant atteindre plusieurs centimètres et contenant de l'azote.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ilium_(anatomie)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ilium_(anatomie)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinosaures
-La structure de la hanche et en particulier celle de l'ilium est un critère de distinction dans clade des Dinosauria entre les deux ordres Saurischia et Ornithischia[2],[3].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La structure de la hanche et en particulier celle de l'ilium est un critère de distinction dans clade des Dinosauria entre les deux ordres Saurischia et Ornithischia,.
 			Structure pelvienne ornithischien (côté gauche)
 			Structure pelvienne saurischienne (côté gauche).
 </t>
